--- a/res/testcase/impormationSearch/carStatus.xlsx
+++ b/res/testcase/impormationSearch/carStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="1000" firstSheet="15" activeTab="16"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="202">
   <si>
     <t>动作</t>
   </si>
@@ -421,6 +421,9 @@
     <t>1离场记录界面</t>
   </si>
   <si>
+    <t>多项筛选</t>
+  </si>
+  <si>
     <t>已离场</t>
   </si>
   <si>
@@ -437,9 +440,6 @@
   </si>
   <si>
     <t>1导常进场界面</t>
-  </si>
-  <si>
-    <t>CarStatusPage.车牌号码搜索框</t>
   </si>
   <si>
     <t>${004_abnormalInsideCar}.车牌号</t>
@@ -651,10 +651,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -697,7 +697,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,36 +712,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,8 +725,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -763,23 +748,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -795,7 +765,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -803,17 +773,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,7 +790,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,7 +848,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,7 +908,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,25 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +980,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,97 +1022,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,21 +1070,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1096,15 +1081,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,8 +1103,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,11 +1133,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,10 +1175,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,133 +1187,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2186,13 +2186,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -3658,8 +3658,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3928,13 +3928,13 @@
         <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -5398,10 +5398,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5511,80 +5511,95 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C34:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9 C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C23">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -5599,7 +5614,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5656,7 +5671,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
@@ -5679,14 +5694,14 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5709,13 +5724,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -5731,7 +5746,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -5760,7 +5775,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>134</v>
@@ -5828,7 +5843,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6339,10 +6354,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6422,45 +6437,45 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -6469,54 +6484,69 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C11:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C12:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C9 C3:C4 C10:C11">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/impormationSearch/carStatus.xlsx
+++ b/res/testcase/impormationSearch/carStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" activeTab="7"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="207">
   <si>
     <t>动作</t>
   </si>
@@ -352,6 +352,15 @@
     <t>8</t>
   </si>
   <si>
+    <t>点击多项筛选</t>
+  </si>
+  <si>
+    <t>CarStatusPage.多项筛选</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>搜索框</t>
   </si>
   <si>
@@ -361,7 +370,28 @@
     <t>${001_checkInsideCar}.车牌号</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>点击请选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>CarStatusPage.请选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>勾选checkbox停车场列表</t>
+  </si>
+  <si>
+    <t>CarStatusPage.停车场列表</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>搜索按钮</t>
@@ -370,13 +400,13 @@
     <t>CarStatusPage.搜索按钮</t>
   </si>
   <si>
-    <t>10</t>
+    <t>13</t>
   </si>
   <si>
     <t>CarStatusPage.查询记录列表</t>
   </si>
   <si>
-    <t>11</t>
+    <t>14</t>
   </si>
   <si>
     <t>2查询界面</t>
@@ -400,12 +430,6 @@
     <t>暂停3秒</t>
   </si>
   <si>
-    <t>点击多项筛选</t>
-  </si>
-  <si>
-    <t>CarStatusPage.多项筛选</t>
-  </si>
-  <si>
     <t>模拟离场</t>
   </si>
   <si>
@@ -445,9 +469,6 @@
     <t>${004_abnormalInsideCar}.车牌号</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>校正车牌号</t>
   </si>
   <si>
@@ -487,7 +508,7 @@
     <t>3校正成功界面</t>
   </si>
   <si>
-    <t>13</t>
+    <t>16</t>
   </si>
   <si>
     <t>关闭</t>
@@ -496,7 +517,7 @@
     <t>CarStatusPage.关闭</t>
   </si>
   <si>
-    <t>14</t>
+    <t>17</t>
   </si>
   <si>
     <t>点击校正流水</t>
@@ -505,7 +526,16 @@
     <t>CarStatusPage.校正流水</t>
   </si>
   <si>
-    <t>16</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>4校正流水界面</t>
@@ -601,31 +631,16 @@
     <t>1校正流水界面</t>
   </si>
   <si>
-    <t>请选择停车场下拉框</t>
-  </si>
-  <si>
-    <t>CarStatusPage.请选择停车场下拉框</t>
-  </si>
-  <si>
     <t>2筛选界面</t>
   </si>
   <si>
     <t>选择筛选停车场</t>
   </si>
   <si>
-    <t>CarStatusPage.停车场列表</t>
-  </si>
-  <si>
-    <t>$全局变量.停车场名称;on</t>
-  </si>
-  <si>
     <t>$全局变量.停车场名称</t>
   </si>
   <si>
     <t>3筛选成功界面</t>
-  </si>
-  <si>
-    <t>筛选停车场</t>
   </si>
   <si>
     <t>勾选</t>
@@ -651,10 +666,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -690,6 +705,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -697,14 +719,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,16 +757,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,6 +795,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -782,7 +812,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,14 +820,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,22 +835,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,7 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,49 +887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +911,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,31 +971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,13 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,19 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,6 +1127,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1147,26 +1182,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1175,10 +1190,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,133 +1202,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2133,10 +2148,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="D5" sqref="D5:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2186,13 +2201,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2208,7 +2223,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2216,13 +2231,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2231,13 +2246,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2246,13 +2261,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2261,43 +2276,45 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2306,40 +2323,73 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>167</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2350,10 +2400,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2403,13 +2453,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2425,7 +2475,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2433,13 +2483,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2448,13 +2498,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2463,13 +2513,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2478,43 +2528,45 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2523,40 +2575,73 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>167</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2567,10 +2652,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2620,13 +2705,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2642,7 +2727,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2650,13 +2735,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2665,13 +2750,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2680,13 +2765,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2695,43 +2780,45 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2740,40 +2827,73 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>167</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2784,10 +2904,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E8" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2837,13 +2957,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2859,7 +2979,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2867,13 +2987,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2882,13 +3002,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2897,13 +3017,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2912,43 +3032,45 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2957,40 +3079,73 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>167</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3001,10 +3156,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E8" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3054,13 +3209,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -3076,7 +3231,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3084,13 +3239,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3099,13 +3254,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3114,13 +3269,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3129,43 +3284,45 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3174,40 +3331,73 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>167</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3218,10 +3408,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3268,7 +3458,7 @@
     </row>
     <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>96</v>
@@ -3283,7 +3473,7 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>99</v>
@@ -3293,140 +3483,160 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>192</v>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>193</v>
+        <v>115</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>194</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C9 C10 C3:C4 C11:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C11 C3:C4 C12:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3437,10 +3647,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3490,13 +3700,13 @@
         <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -3512,7 +3722,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3520,13 +3730,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3535,13 +3745,13 @@
         <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3550,13 +3760,13 @@
         <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3565,87 +3775,107 @@
         <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>192</v>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>193</v>
+        <v>115</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>194</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C11 C12 C3:C4 C9:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C12 C13 C3:C4 C10:C11">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3656,7 +3886,1470 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="B7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C12 C13 C3:C4 C10:C11">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="B7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C16:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C8">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C10 C11 C12 C13 C14 C15">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="B7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -3706,22 +5399,22 @@
     </row>
     <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>99</v>
@@ -3731,140 +5424,160 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>197</v>
+        <v>115</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>194</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C11 C12 C3:C4 C9:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3872,13 +5585,496 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="29" customHeight="1" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" ht="29" customHeight="1" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" ht="29" customHeight="1" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" ht="29" customHeight="1" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" ht="29" customHeight="1" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="29" customHeight="1" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" ht="29" customHeight="1" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="29" customHeight="1" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" ht="29" customHeight="1" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C4">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 C13 C14:C15">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11 C12 C13 C9:C10">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C25">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3908,182 +6104,242 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>194</v>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
-      <formula1>Actions!$A$2:$A$50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4 C9 C11 C5:C6 C7:C8 C12:C13 C14:C18 C19:C1048576">
+      <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4091,13 +6347,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4132,177 +6388,334 @@
         <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>199</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>200</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>194</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C23:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C21 C22 C2:C3 C4:C5 C10:C18">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9 C19 C20">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4310,235 +6723,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C8">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C10 C11 C12">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4585,22 +6776,22 @@
     </row>
     <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>99</v>
@@ -4610,140 +6801,173 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>199</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>201</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>194</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4751,13 +6975,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4804,22 +7028,22 @@
     </row>
     <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>99</v>
@@ -4829,140 +7053,160 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>199</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>194</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C11 C3:C4 C12:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4970,13 +7214,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5023,22 +7267,22 @@
     </row>
     <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>99</v>
@@ -5048,1726 +7292,176 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>192</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>193</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>194</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" ht="29" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" ht="29" customHeight="1" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" ht="29" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" ht="29" customHeight="1" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" ht="29" customHeight="1" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" ht="29" customHeight="1" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="29" customHeight="1" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" ht="29" customHeight="1" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" ht="29" customHeight="1" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C4">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C23">
-      <formula1>Actions!$A$2:$A$35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
-      <formula1>Actions!$A$2:$A$30</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4 C9 C5:C6 C7:C8 C10:C15 C16:C1048576">
-      <formula1>[1]Actions!#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" ht="27" customHeight="1" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C18:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C2:C3 C4:C5 C7:C16">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C12:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C9 C3:C4 C10:C11">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C3:C4 C9:C12">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/res/testcase/impormationSearch/carStatus.xlsx
+++ b/res/testcase/impormationSearch/carStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="9" activeTab="15"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="209">
   <si>
     <t>动作</t>
   </si>
@@ -538,6 +538,9 @@
     <t>21</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>4校正流水界面</t>
   </si>
   <si>
@@ -646,13 +649,16 @@
     <t>勾选</t>
   </si>
   <si>
-    <t>未开票</t>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>$全局变量.筛选数据停车场名称;off</t>
+  </si>
+  <si>
+    <t>$全局变量.筛选数据停车场名称;on</t>
   </si>
   <si>
     <t>选择停车场</t>
-  </si>
-  <si>
-    <t>$全局变量.筛选数据停车场名称;on</t>
   </si>
   <si>
     <t>$全局变量.筛选数据停车场名称</t>
@@ -666,10 +672,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -705,51 +711,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,7 +719,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,17 +756,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,21 +788,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -819,16 +803,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +840,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,7 +869,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,13 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,127 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,25 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,17 +1091,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,24 +1141,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,31 +1166,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,19 +1208,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,112 +1229,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2223,7 +2229,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2231,13 +2237,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2246,13 +2252,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2308,13 +2314,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2330,7 +2336,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2338,13 +2344,13 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -2362,7 +2368,7 @@
         <v>153</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2377,7 +2383,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2400,10 +2406,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2453,13 +2459,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2475,21 +2481,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2498,13 +2504,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2513,13 +2519,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2528,45 +2534,45 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2575,72 +2581,87 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>177</v>
       </c>
     </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C16:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C11 C3:C4 C12:C15">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -2705,13 +2726,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2727,7 +2748,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2735,13 +2756,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2750,13 +2771,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2812,13 +2833,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2834,7 +2855,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2842,13 +2863,13 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -2866,7 +2887,7 @@
         <v>153</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2881,7 +2902,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2904,10 +2925,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="B7:E8"/>
+      <selection activeCell="D5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2957,13 +2978,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2979,21 +3000,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3002,13 +3023,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3017,13 +3038,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3032,45 +3053,45 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3079,72 +3100,87 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>177</v>
       </c>
     </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C16:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C11 C3:C4 C12:C15">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -3156,10 +3192,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="B7:E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3231,21 +3267,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3254,13 +3290,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3269,13 +3305,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3284,45 +3320,45 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3331,72 +3367,87 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>177</v>
       </c>
     </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C16:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C10 C3:C4 C11:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C11 C3:C4 C12:C15">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -3411,7 +3462,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3491,13 +3542,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3506,13 +3557,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3575,7 +3626,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3583,7 +3634,7 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
@@ -3609,7 +3660,7 @@
         <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3624,7 +3675,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3649,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3700,7 +3751,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -3730,13 +3781,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3745,13 +3796,13 @@
         <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3814,7 +3865,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3822,7 +3873,7 @@
         <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
@@ -3848,7 +3899,7 @@
         <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3863,7 +3914,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +3940,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="B7:E8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3939,7 +3990,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -3961,7 +4012,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3969,13 +4020,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3984,13 +4035,13 @@
         <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4053,7 +4104,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4061,7 +4112,7 @@
         <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
@@ -4087,7 +4138,7 @@
         <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4102,7 +4153,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4127,8 +4178,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="B7:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4175,7 +4226,7 @@
     </row>
     <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>139</v>
@@ -4190,7 +4241,7 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>99</v>
@@ -4200,42 +4251,42 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>111</v>
@@ -4250,7 +4301,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>114</v>
@@ -4262,59 +4313,59 @@
         <v>115</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
@@ -4326,12 +4377,12 @@
         <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>99</v>
@@ -4341,7 +4392,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4349,10 +4400,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C10 C11 C3:C4 C12:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -4364,10 +4415,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4417,13 +4468,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -4439,21 +4490,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -4462,13 +4513,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4477,13 +4528,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -4492,63 +4543,61 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>204</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4556,13 +4605,13 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>205</v>
@@ -4573,25 +4622,42 @@
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>200</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -4924,13 +4990,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -4946,7 +5012,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4954,13 +5020,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -4969,13 +5035,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -5038,7 +5104,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5046,7 +5112,7 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
@@ -5055,7 +5121,7 @@
         <v>115</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5072,7 +5138,7 @@
         <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5087,7 +5153,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +5176,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5163,13 +5229,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -5185,21 +5251,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -5208,13 +5274,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -5223,13 +5289,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -5238,63 +5304,61 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>204</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5302,13 +5366,13 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>205</v>
@@ -5319,25 +5383,42 @@
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>200</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -5349,10 +5430,10 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5424,21 +5505,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -5447,13 +5528,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -5462,13 +5543,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -5477,63 +5558,61 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>116</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5541,16 +5620,16 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5558,25 +5637,42 @@
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>200</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C9 C3:C4 C10:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C3:C4 C11:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -6073,8 +6169,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6334,11 +6430,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>[1]Actions!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4 C9 C11 C5:C6 C7:C8 C12:C13 C14:C18 C19:C1048576">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4 C9 C10 C11 C5:C6 C7:C8 C12:C13 C14:C18 C19:C1048576">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6350,10 +6443,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6678,40 +6771,55 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" ht="27" customHeight="1" spans="1:5">
+    <row r="21" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>166</v>
+      <c r="E23" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C23:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C24:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C21 C22 C2:C3 C4:C5 C10:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C21 C22 C23 C2:C3 C4:C5 C10:C18">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9 C19 C20">
@@ -6809,13 +6917,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -6824,13 +6932,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -6886,13 +6994,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -6908,7 +7016,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -6916,13 +7024,13 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -6940,7 +7048,7 @@
         <v>153</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -6955,7 +7063,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6981,7 +7089,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7031,7 +7139,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -7053,7 +7161,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -7076,7 +7184,7 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -7140,13 +7248,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -7162,7 +7270,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -7176,7 +7284,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>109</v>
@@ -7194,7 +7302,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -7270,7 +7378,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -7292,7 +7400,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -7300,13 +7408,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -7315,13 +7423,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -7377,13 +7485,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -7399,7 +7507,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -7407,13 +7515,13 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -7431,7 +7539,7 @@
         <v>153</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -7446,7 +7554,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/impormationSearch/carStatus.xlsx
+++ b/res/testcase/impormationSearch/carStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="15" activeTab="17"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="1000" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="210">
   <si>
     <t>动作</t>
   </si>
@@ -655,16 +655,19 @@
     <t>$全局变量.筛选数据停车场名称;off</t>
   </si>
   <si>
+    <t>遥控开闸</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
     <t>$全局变量.筛选数据停车场名称;on</t>
   </si>
   <si>
-    <t>选择停车场</t>
+    <t>分钟</t>
   </si>
   <si>
     <t>$全局变量.筛选数据停车场名称</t>
-  </si>
-  <si>
-    <t>分钟</t>
   </si>
 </sst>
 </file>
@@ -2928,7 +2931,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="B5:D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4176,10 +4179,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4254,18 +4257,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="5" s="2" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -4274,13 +4277,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4289,13 +4292,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -4304,17 +4307,15 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
@@ -4330,7 +4331,7 @@
         <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4338,46 +4339,46 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>198</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4385,25 +4386,42 @@
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C10 C11 C3:C4 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C11 C12 C3:C4 C13:C14">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -4415,10 +4433,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4567,7 +4585,7 @@
         <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4602,59 +4620,42 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C3:C4 C11:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C11 C3:C4 C12:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
@@ -4672,7 +4673,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5121,7 +5122,7 @@
         <v>115</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5328,7 +5329,7 @@
         <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5375,7 +5376,7 @@
         <v>115</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5392,7 +5393,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5925,7 +5926,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6446,7 +6447,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/impormationSearch/carStatus.xlsx
+++ b/res/testcase/impormationSearch/carStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="1000" firstSheet="15" activeTab="18"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="1000" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="211">
   <si>
     <t>动作</t>
   </si>
@@ -667,7 +667,10 @@
     <t>分钟</t>
   </si>
   <si>
-    <t>$全局变量.筛选数据停车场名称</t>
+    <t>$全局变量.云停车场;on</t>
+  </si>
+  <si>
+    <t>$全局变量.云停车场</t>
   </si>
 </sst>
 </file>
@@ -675,10 +678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -714,90 +717,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -813,16 +738,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,7 +753,79 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,7 +840,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,7 +875,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,7 +941,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,163 +1037,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,41 +1097,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,10 +1129,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1169,16 +1146,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,6 +1183,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1199,10 +1202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,133 +1214,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4435,7 +4438,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -5179,8 +5182,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5376,7 +5379,7 @@
         <v>115</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5393,7 +5396,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">

--- a/res/testcase/impormationSearch/carStatus.xlsx
+++ b/res/testcase/impormationSearch/carStatus.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="211">
   <si>
     <t>动作</t>
   </si>
@@ -680,8 +680,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -723,6 +723,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -731,7 +732,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -746,22 +747,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,27 +761,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,8 +791,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -825,7 +823,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,28 +855,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +875,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,67 +1025,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,103 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,6 +1097,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1108,30 +1128,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,13 +1180,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,10 +1202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1214,133 +1214,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5180,10 +5180,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5332,7 +5332,7 @@
         <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -5367,59 +5367,42 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C15:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C3:C4 C11:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C10 C11 C3:C4 C12:C13">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9">
